--- a/data/trans_orig/P14A07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59AE3A70-02F3-4B07-818C-F1141280867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FB19933-550A-41D1-9A00-261B994F18AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E2430AA-F590-4A70-81F8-71115301C9E4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5313855E-0F08-439D-8A96-955B3CF3FF74}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -93,31 +93,31 @@
     <t>81,96%</t>
   </si>
   <si>
-    <t>46,59%</t>
+    <t>45,12%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>53,41%</t>
+    <t>54,88%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -141,37 +141,37 @@
     <t>47,85%</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
   </si>
   <si>
     <t>48,0%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
   </si>
   <si>
     <t>52,15%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>52,0%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -180,31 +180,31 @@
     <t>66,75%</t>
   </si>
   <si>
-    <t>33,14%</t>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>70,4%</t>
   </si>
   <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>40,11%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>66,86%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
   </si>
   <si>
     <t>29,6%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
+    <t>59,89%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -219,19 +219,19 @@
     <t>50,49%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>50,87%</t>
@@ -240,15 +240,21 @@
     <t>49,51%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
     <t>Sevilla</t>
   </si>
   <si>
@@ -258,19 +264,19 @@
     <t>72,06%</t>
   </si>
   <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -279,73 +285,73 @@
     <t>27,94%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -357,31 +363,31 @@
     <t>77,6%</t>
   </si>
   <si>
-    <t>43,81%</t>
+    <t>44,02%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>56,19%</t>
+    <t>55,98%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
   </si>
   <si>
     <t>69,21%</t>
@@ -399,7 +405,7 @@
     <t>81,66%</t>
   </si>
   <si>
-    <t>38,55%</t>
+    <t>40,74%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -411,7 +417,7 @@
     <t>18,34%</t>
   </si>
   <si>
-    <t>61,45%</t>
+    <t>59,26%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -453,121 +459,115 @@
     <t>79,7%</t>
   </si>
   <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>81,82%</t>
   </si>
   <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>58,2%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
+    <t>41,8%</t>
   </si>
   <si>
     <t>63,68%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>55,44%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>36,32%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
   </si>
   <si>
     <t>44,56%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
   </si>
   <si>
     <t>76,16%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>23,84%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE2BC39-F4DD-42E3-8F11-832B258A0E22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD82CC7-FCE8-4934-8E36-79F3D8167A42}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1720,7 +1720,7 @@
         <v>47</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1729,13 +1729,13 @@
         <v>7511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,10 +1768,10 @@
         <v>51</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1780,10 +1780,10 @@
         <v>3159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>55</v>
@@ -2087,10 +2087,10 @@
         <v>69</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,7 +2146,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2161,7 +2161,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>27</v>
@@ -2173,13 +2173,13 @@
         <v>8304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -2188,13 +2188,13 @@
         <v>10445</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,7 +2215,7 @@
         <v>30</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2224,13 +2224,13 @@
         <v>3220</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2239,13 +2239,13 @@
         <v>3220</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2313,13 @@
         <v>7280</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H28" s="7">
         <v>40</v>
@@ -2328,13 +2328,13 @@
         <v>43196</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M28" s="7">
         <v>47</v>
@@ -2343,13 +2343,13 @@
         <v>50476</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2364,13 @@
         <v>3013</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -2379,13 +2379,13 @@
         <v>27429</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -2394,13 +2394,13 @@
         <v>30441</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +2480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4355B4C6-1FF2-4A23-AFE9-82E5BF4983CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E780881-D218-4867-BEB4-712DF5D67BE3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2497,7 +2497,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2619,10 +2619,10 @@
         <v>9499</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2634,13 +2634,13 @@
         <v>9499</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2670,13 @@
         <v>2742</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2685,13 +2685,13 @@
         <v>3978</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2759,7 @@
         <v>1943</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
@@ -2787,7 +2787,7 @@
         <v>1943</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
@@ -2808,7 +2808,7 @@
         <v>865</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
@@ -2836,7 +2836,7 @@
         <v>865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
@@ -2911,7 +2911,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>27</v>
@@ -2923,7 +2923,7 @@
         <v>1972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
@@ -2938,10 +2938,10 @@
         <v>5490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2965,7 +2965,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2974,7 +2974,7 @@
         <v>1233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
@@ -2989,13 +2989,13 @@
         <v>1233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,7 +3081,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>27</v>
@@ -3096,7 +3096,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>27</v>
@@ -3135,7 +3135,7 @@
         <v>30</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>30</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,7 +3236,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>27</v>
@@ -3251,7 +3251,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>27</v>
@@ -3290,7 +3290,7 @@
         <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>30</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,7 +3376,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>27</v>
@@ -3388,7 +3388,7 @@
         <v>2256</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
@@ -3403,10 +3403,10 @@
         <v>5672</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3430,7 +3430,7 @@
         <v>30</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3439,7 +3439,7 @@
         <v>2219</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
@@ -3454,13 +3454,13 @@
         <v>2219</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,7 +3531,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>27</v>
@@ -3543,13 +3543,13 @@
         <v>13332</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3558,13 +3558,13 @@
         <v>15275</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3585,7 @@
         <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3594,13 +3594,13 @@
         <v>3395</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3609,10 +3609,10 @@
         <v>3395</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>148</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3689,7 +3689,7 @@
         <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3737,7 +3737,7 @@
         <v>16</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>27</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A07-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FB19933-550A-41D1-9A00-261B994F18AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D31ADE-AC02-410E-ADFE-F0350BAC5C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5313855E-0F08-439D-8A96-955B3CF3FF74}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17F2C510-74B1-495E-A6F6-875469BE541D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -99,10 +99,10 @@
     <t>77,25%</t>
   </si>
   <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>18,04%</t>
@@ -114,10 +114,10 @@
     <t>22,75%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -141,37 +141,37 @@
     <t>47,85%</t>
   </si>
   <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>48,0%</t>
   </si>
   <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>52,15%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
   </si>
   <si>
     <t>52,0%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -180,31 +180,37 @@
     <t>66,75%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>70,4%</t>
   </si>
   <si>
-    <t>40,11%</t>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
   </si>
   <si>
     <t>29,6%</t>
   </si>
   <si>
-    <t>59,89%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -219,19 +225,19 @@
     <t>50,49%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>50,87%</t>
@@ -240,19 +246,19 @@
     <t>49,51%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -264,19 +270,16 @@
     <t>72,06%</t>
   </si>
   <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>48,96%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -285,91 +288,88 @@
     <t>27,94%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
+    <t>51,04%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por estreñimiento crónico en 2015 (Tasa respuesta: 1,04%)</t>
+    <t>Población que recibe medicación o terapia por estreñimiento crónico en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>44,02%</t>
+    <t>36,29%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>35,68%</t>
+    <t>35,65%</t>
   </si>
   <si>
     <t>92,5%</t>
@@ -378,7 +378,7 @@
     <t>22,4%</t>
   </si>
   <si>
-    <t>55,98%</t>
+    <t>63,71%</t>
   </si>
   <si>
     <t>29,51%</t>
@@ -387,7 +387,7 @@
     <t>7,5%</t>
   </si>
   <si>
-    <t>64,32%</t>
+    <t>64,35%</t>
   </si>
   <si>
     <t>69,21%</t>
@@ -405,7 +405,7 @@
     <t>81,66%</t>
   </si>
   <si>
-    <t>40,74%</t>
+    <t>38,25%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -417,7 +417,7 @@
     <t>18,34%</t>
   </si>
   <si>
-    <t>59,26%</t>
+    <t>61,75%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -441,7 +441,7 @@
     <t>71,88%</t>
   </si>
   <si>
-    <t>29,98%</t>
+    <t>30,82%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -453,121 +453,121 @@
     <t>28,12%</t>
   </si>
   <si>
-    <t>70,02%</t>
+    <t>69,18%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>81,82%</t>
   </si>
   <si>
-    <t>58,2%</t>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>41,8%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
   </si>
   <si>
     <t>63,68%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>55,44%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>36,32%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
   </si>
   <si>
     <t>44,56%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
   <si>
     <t>76,16%</t>
   </si>
   <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>23,84%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD82CC7-FCE8-4934-8E36-79F3D8167A42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF6FA3D-30CE-4136-838F-23B683EA81AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1735,7 +1735,7 @@
         <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1765,13 +1765,13 @@
         <v>3159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1780,13 +1780,13 @@
         <v>3159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,7 +1842,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2003,7 +2003,7 @@
         <v>982</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
@@ -2018,13 +2018,13 @@
         <v>6222</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2033,13 +2033,13 @@
         <v>7204</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,7 +2054,7 @@
         <v>1017</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
@@ -2069,13 +2069,13 @@
         <v>6101</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -2084,13 +2084,13 @@
         <v>7118</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,7 +2146,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2161,7 +2161,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>27</v>
@@ -2173,13 +2173,13 @@
         <v>8304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -2188,13 +2188,13 @@
         <v>10445</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,7 +2215,7 @@
         <v>30</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2224,13 +2224,13 @@
         <v>3220</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2239,10 +2239,10 @@
         <v>3220</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>86</v>
@@ -2480,7 +2480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E780881-D218-4867-BEB4-712DF5D67BE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFECE5DC-37A0-45E0-99A4-7A6E509F2CC8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3236,7 +3236,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>27</v>
@@ -3290,7 +3290,7 @@
         <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3531,7 +3531,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>27</v>
@@ -3564,7 +3564,7 @@
         <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3585,7 @@
         <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3594,13 +3594,13 @@
         <v>3395</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3609,13 +3609,13 @@
         <v>3395</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,7 +3671,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3689,7 +3689,7 @@
         <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3698,13 +3698,13 @@
         <v>7920</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3713,13 +3713,13 @@
         <v>7920</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>16</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>27</v>
@@ -3749,13 +3749,13 @@
         <v>4517</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3764,13 +3764,13 @@
         <v>6365</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3838,13 @@
         <v>12613</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -3853,13 +3853,13 @@
         <v>45026</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -3868,13 +3868,13 @@
         <v>57639</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3889,13 @@
         <v>3949</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -3904,13 +3904,13 @@
         <v>14105</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -3919,7 +3919,7 @@
         <v>18054</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>175</v>
